--- a/charts/Box_SD_results.xlsx
+++ b/charts/Box_SD_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saxion_cmgt\2nd year\3rd term\Advanced Tools\advanced-tools-collision-eval\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B19E7CDB-A22E-423C-A7C1-60FABEDDFC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFBA5C-E9FB-499A-BC94-9D63B462A5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{093075E5-2C53-40AB-95C9-80DBEE3DCF2A}"/>
   </bookViews>
@@ -861,7 +861,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>% of static objects</a:t>
+                  <a:t>Percentage of static objects</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1965,7 +1965,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
